--- a/biology/Histoire de la zoologie et de la botanique/Kevin_Padian/Kevin_Padian.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Kevin_Padian/Kevin_Padian.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Kevin Padian, né le 12 mars 1951[1], est un paléontologue américain spécialiste de la biologie intégrative[2]. Il a été conservateur du muséum de paléontologie de l'université de Californie à Berkeley.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kevin Padian, né le 12 mars 1951, est un paléontologue américain spécialiste de la biologie intégrative. Il a été conservateur du muséum de paléontologie de l'université de Californie à Berkeley.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il s'est particulièrement intéressé à l'évolution des vertébrés, surtout à l'origine du vol des oiseaux et des ptérosaures. Il a publié plus de 100 articles scientifiques[3]. En 2003, il a reçu le Carl Sagan Prize for Science Popularization[4] pour ces efforts de vulgarisation scientifique[5]. En 2007 il est nommé membre de l'Association américaine pour l'avancement de la science[6].
-Il est intervenu comme témoin lors du procès Kitzmiller v. Dover Area School où est mis en cause l'enseignement de l'intelligent design dans les écoles publiques américaine, son intervention a été citée plusieurs fois dans la décision du tribunal[7].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il s'est particulièrement intéressé à l'évolution des vertébrés, surtout à l'origine du vol des oiseaux et des ptérosaures. Il a publié plus de 100 articles scientifiques. En 2003, il a reçu le Carl Sagan Prize for Science Popularization pour ces efforts de vulgarisation scientifique. En 2007 il est nommé membre de l'Association américaine pour l'avancement de la science.
+Il est intervenu comme témoin lors du procès Kitzmiller v. Dover Area School où est mis en cause l'enseignement de l'intelligent design dans les écoles publiques américaine, son intervention a été citée plusieurs fois dans la décision du tribunal.
 </t>
         </is>
       </c>
